--- a/data/Test_Survey_Responses.xlsx
+++ b/data/Test_Survey_Responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericberlow/Github/creative-habit-survey/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\m_neo\sharp-dev\creative-habit-survey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B79B66-EF4B-3247-AF4D-6B0FA883740C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C36CF-BDDF-4811-AF9E-E43850797583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test responses" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>What factors are most significant in motivating your creative work?</t>
   </si>
@@ -158,13 +158,49 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Test6</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test10</t>
+  </si>
+  <si>
+    <t>Test11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -174,6 +210,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,9 +258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +298,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +404,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,204 +557,210 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" customWidth="1"/>
+    <col min="1" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
       </c>
       <c r="L2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
         <v>5</v>
       </c>
       <c r="O2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="1">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="1">
-        <v>3</v>
-      </c>
       <c r="T2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U2" s="1">
         <v>4</v>
       </c>
       <c r="V2" s="1">
-        <v>5</v>
-      </c>
-      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>5</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="1">
-        <v>2</v>
-      </c>
       <c r="Y2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -738,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
         <v>5</v>
@@ -749,14 +795,14 @@
       <c r="Q3" s="1">
         <v>5</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="1">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
       <c r="T3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
         <v>5</v>
@@ -764,120 +810,126 @@
       <c r="V3" s="1">
         <v>5</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="1">
+        <v>5</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="1">
-        <v>5</v>
-      </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
         <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="1">
-        <v>3</v>
-      </c>
-      <c r="R4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="1">
-        <v>5</v>
-      </c>
       <c r="T4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U4" s="1">
         <v>4</v>
       </c>
       <c r="V4" s="1">
-        <v>2</v>
-      </c>
-      <c r="W4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="1">
-        <v>5</v>
-      </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -886,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
@@ -901,41 +953,41 @@
         <v>5</v>
       </c>
       <c r="M5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="1">
         <v>5</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="1">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="1">
-        <v>3</v>
-      </c>
       <c r="T5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" s="1">
         <v>5</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
       <c r="Y5" s="1">
         <v>1</v>
       </c>
@@ -943,119 +995,125 @@
         <v>1</v>
       </c>
       <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1">
-        <v>4</v>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="1">
-        <v>3</v>
-      </c>
       <c r="T6" s="1">
         <v>3</v>
       </c>
       <c r="U6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" s="1">
         <v>5</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="1">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="1">
-        <v>5</v>
-      </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="1">
         <v>2</v>
       </c>
+      <c r="AB6" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
@@ -1064,197 +1122,203 @@
         <v>4</v>
       </c>
       <c r="L7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="1">
-        <v>4</v>
-      </c>
       <c r="T7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" s="1">
         <v>5</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
       <c r="Y7" s="1">
         <v>1</v>
       </c>
       <c r="Z7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
         <v>4</v>
       </c>
       <c r="M8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="1">
         <v>5</v>
       </c>
       <c r="O8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="1">
-        <v>2</v>
-      </c>
-      <c r="R8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="1">
-        <v>2</v>
-      </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
         <v>4</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="1">
+        <v>4</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="1">
-        <v>3</v>
-      </c>
       <c r="Y8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1">
-        <v>5</v>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
       </c>
       <c r="P9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>4</v>
-      </c>
-      <c r="R9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="1">
-        <v>2</v>
-      </c>
       <c r="T9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U9" s="1">
         <v>4</v>
@@ -1262,64 +1326,67 @@
       <c r="V9" s="1">
         <v>4</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="1">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="1">
-        <v>1</v>
-      </c>
       <c r="Y9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="1">
         <v>4</v>
       </c>
+      <c r="AB9" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1">
-        <v>3</v>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" s="1">
         <v>4</v>
@@ -1328,96 +1395,99 @@
         <v>4</v>
       </c>
       <c r="Q10" s="1">
-        <v>2</v>
-      </c>
-      <c r="R10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="1">
-        <v>2</v>
-      </c>
       <c r="T10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U10" s="1">
         <v>5</v>
       </c>
       <c r="V10" s="1">
-        <v>4</v>
-      </c>
-      <c r="X10" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4</v>
       </c>
       <c r="Y10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="2">
-        <v>5</v>
-      </c>
-      <c r="R11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2">
+        <v>5</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="2">
-        <v>3</v>
-      </c>
       <c r="T11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U11" s="2">
         <v>5</v>
@@ -1425,28 +1495,31 @@
       <c r="V11" s="2">
         <v>5</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W11" s="2">
+        <v>5</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X11" s="2">
-        <v>4</v>
-      </c>
       <c r="Y11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1">
-        <v>3</v>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1455,13 +1528,13 @@
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1493,12 +1566,12 @@
       <c r="Q12" s="1">
         <v>3</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="1">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="1">
-        <v>3</v>
-      </c>
       <c r="T12" s="1">
         <v>3</v>
       </c>
@@ -1506,10 +1579,14 @@
         <v>3</v>
       </c>
       <c r="V12" s="1">
+        <v>3</v>
+      </c>
+      <c r="W12" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>